--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teunj\My Drive (teunteun.12@gmail.com)\Fontys\Semester 3\SDA3\EndAssigmentMain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irven\Documents\GitHub\EndAssigmentMain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FE9B18-4467-4A22-83E8-B3E403C7D5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98564B04-8938-4AE3-A433-B2DD98C0207F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{85EDF701-E697-449C-8405-356728785468}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{85EDF701-E697-449C-8405-356728785468}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,11 +35,66 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+  <si>
+    <t>Takenlijst</t>
+  </si>
+  <si>
+    <t>Loading</t>
+  </si>
+  <si>
+    <t>Unloading</t>
+  </si>
+  <si>
+    <t>robotic movements</t>
+  </si>
+  <si>
+    <t>coordinate calculations</t>
+  </si>
+  <si>
+    <t>State Machine Diagram</t>
+  </si>
+  <si>
+    <t>Sequence Diagram</t>
+  </si>
+  <si>
+    <t>Class Diagram</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>UML</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Machine </t>
+  </si>
+  <si>
+    <t>Shape recognition</t>
+  </si>
+  <si>
+    <t>Color recognition</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -66,11 +121,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -86,7 +142,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -382,12 +438,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB3C01D-A55F-469E-9ACA-BB78B4FD26A2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>